--- a/docs/codex/codex-metadata.xlsx
+++ b/docs/codex/codex-metadata.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Export this as TSV" sheetId="1" r:id="rId1"/>
+    <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
     <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
     <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
     <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="acquisition_ins-ent_vendor list" sheetId="5" r:id="rId5"/>
-    <sheet name="acquisition_ins-ment_model list" sheetId="6" r:id="rId6"/>
+    <sheet name="acquisition_in...nt_vendor list" sheetId="5" r:id="rId5"/>
+    <sheet name="acquisition_in...ent_model list" sheetId="6" r:id="rId6"/>
     <sheet name="resolution_x_unit list" sheetId="7" r:id="rId7"/>
     <sheet name="resolution_y_unit list" sheetId="8" r:id="rId8"/>
     <sheet name="resolution_z_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="preparation_ins-ent_vendor list" sheetId="10" r:id="rId10"/>
-    <sheet name="preparation_ins-ment_model list" sheetId="11" r:id="rId11"/>
+    <sheet name="preparation_in...nt_vendor list" sheetId="10" r:id="rId10"/>
+    <sheet name="preparation_in...ent_model list" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -903,7 +903,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1001,60 +1004,60 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="I2:I1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="J2:J1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="K2:K1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>'acquisition_ins-ent_vendor list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
-      <formula1>'acquisition_ins-ment_model list'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Keyence / Zeiss." sqref="M2:M1048576">
+      <formula1>'acquisition_in...nt_vendor list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: BZ-X800 / BZ-X710 / Axio Observer Z1." sqref="N2:N1048576">
+      <formula1>'acquisition_in...ent_model list'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="O2:O1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="P2:P1048576">
       <formula1>'resolution_x_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="R2:R1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="T2:T1048576">
       <formula1>'resolution_z_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
-      <formula1>'preparation_ins-ent_vendor list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
-      <formula1>'preparation_ins-ment_model list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="U2:U1048576">
+      <formula1>'preparation_in...nt_vendor list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: version 1 robot / prototype robot - Stanford/Nolan Lab." sqref="V2:V1048576">
+      <formula1>'preparation_in...ent_model list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="W2:W1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="X2:X1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="Y2:Y1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>

--- a/docs/codex/codex-metadata.xlsx
+++ b/docs/codex/codex-metadata.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="acquisition_in...nt_vendor list" sheetId="5" r:id="rId5"/>
-    <sheet name="acquisition_in...ent_model list" sheetId="6" r:id="rId6"/>
-    <sheet name="resolution_x_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="resolution_y_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="resolution_z_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="preparation_in...nt_vendor list" sheetId="10" r:id="rId10"/>
-    <sheet name="preparation_in...ent_model list" sheetId="11" r:id="rId11"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="acquisition_in...nt_vendor list" sheetId="6" r:id="rId6"/>
+    <sheet name="acquisition_in...ent_model list" sheetId="7" r:id="rId7"/>
+    <sheet name="resolution_x_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="resolution_y_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="resolution_z_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="preparation_in...nt_vendor list" sheetId="11" r:id="rId11"/>
+    <sheet name="preparation_in...ent_model list" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -38,11 +39,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Current version of metadata schema. Template provides the correct value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +438,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -901,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -910,33 +930,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -948,116 +968,122 @@
         <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="17">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="I2:I1048576">
+  <dataValidations count="18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="J2:J1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="K2:K1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="L2:L1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="M2:M1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Keyence / Zeiss." sqref="M2:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Keyence / Zeiss." sqref="N2:N1048576">
       <formula1>'acquisition_in...nt_vendor list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: BZ-X800 / BZ-X710 / Axio Observer Z1." sqref="N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: BZ-X800 / BZ-X710 / Axio Observer Z1." sqref="O2:O1048576">
       <formula1>'acquisition_in...ent_model list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="O2:O1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="P2:P1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="Q2:Q1048576">
       <formula1>'resolution_x_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="R2:R1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="S2:S1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="T2:T1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="U2:U1048576">
       <formula1>'resolution_z_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="U2:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="V2:V1048576">
       <formula1>'preparation_in...nt_vendor list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: version 1 robot / prototype robot - Stanford/Nolan Lab." sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: version 1 robot / prototype robot - Stanford/Nolan Lab." sqref="W2:W1048576">
       <formula1>'preparation_in...ent_model list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="W2:W1048576">
-      <formula1>-2147483647</formula1>
-      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="X2:X1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="Y2:Y1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="Z2:Z1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
@@ -1068,6 +1094,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1077,7 +1131,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1095,12 +1149,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1172,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1164,6 +1218,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1172,40 +1244,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1223,17 +1267,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1251,17 +1295,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1279,17 +1323,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/codex/codex-metadata.xlsx
+++ b/docs/codex/codex-metadata.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="acquisition_in...nt_vendor list" sheetId="5" r:id="rId5"/>
-    <sheet name="acquisition_in...ent_model list" sheetId="6" r:id="rId6"/>
-    <sheet name="resolution_x_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="resolution_y_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="resolution_z_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="preparation_in...nt_vendor list" sheetId="10" r:id="rId10"/>
-    <sheet name="preparation_in...ent_model list" sheetId="11" r:id="rId11"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="acquisition_in...nt_vendor list" sheetId="6" r:id="rId6"/>
+    <sheet name="acquisition_in...ent_model list" sheetId="7" r:id="rId7"/>
+    <sheet name="resolution_x_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="resolution_y_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="resolution_z_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="preparation_in...nt_vendor list" sheetId="11" r:id="rId11"/>
+    <sheet name="preparation_in...ent_model list" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -38,11 +39,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-text description of this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +451,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -901,7 +937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -910,154 +946,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="17">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="I2:I1048576">
+  <dataValidations count="18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="L2:L1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Keyence / Zeiss." sqref="M2:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Keyence / Zeiss." sqref="O2:O1048576">
       <formula1>'acquisition_in...nt_vendor list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: BZ-X800 / BZ-X710 / Axio Observer Z1." sqref="N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: BZ-X800 / BZ-X710 / Axio Observer Z1." sqref="P2:P1048576">
       <formula1>'acquisition_in...ent_model list'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="O2:O1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="P2:P1048576">
-      <formula1>'resolution_x_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="R2:R1048576">
-      <formula1>'resolution_y_unit list'!$A$1:$A$3</formula1>
+      <formula1>'resolution_x_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="T2:T1048576">
+      <formula1>'resolution_y_unit list'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="V2:V1048576">
       <formula1>'resolution_z_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="U2:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="W2:W1048576">
       <formula1>'preparation_in...nt_vendor list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: version 1 robot / prototype robot - Stanford/Nolan Lab." sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: version 1 robot / prototype robot - Stanford/Nolan Lab." sqref="X2:X1048576">
       <formula1>'preparation_in...ent_model list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="W2:W1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="Y2:Y1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="X2:X1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="Z2:Z1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="Y2:Y1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AA2:AA1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
@@ -1068,6 +1113,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1077,7 +1150,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1095,12 +1168,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1191,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1209,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1227,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1163,6 +1236,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1172,40 +1263,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1223,17 +1286,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1251,17 +1314,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1279,17 +1342,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/codex/codex-metadata.xlsx
+++ b/docs/codex/codex-metadata.xlsx
@@ -312,7 +312,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of incremental distance between image slices.(um)</t>
+          <t>The unit of incremental distance between image slices.</t>
         </r>
       </text>
     </comment>

--- a/docs/codex/codex-metadata.xlsx
+++ b/docs/codex/codex-metadata.xlsx
@@ -208,7 +208,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>

--- a/docs/codex/codex-metadata.xlsx
+++ b/docs/codex/codex-metadata.xlsx
@@ -12,13 +12,14 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="acquisition_in...nt_vendor list" sheetId="6" r:id="rId6"/>
-    <sheet name="acquisition_in...ent_model list" sheetId="7" r:id="rId7"/>
-    <sheet name="resolution_x_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="resolution_y_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="resolution_z_unit list" sheetId="10" r:id="rId10"/>
-    <sheet name="preparation_in...nt_vendor list" sheetId="11" r:id="rId11"/>
-    <sheet name="preparation_in...ent_model list" sheetId="12" r:id="rId12"/>
+    <sheet name="is_targeted list" sheetId="6" r:id="rId6"/>
+    <sheet name="acquisition_in...nt_vendor list" sheetId="7" r:id="rId7"/>
+    <sheet name="acquisition_in...ent_model list" sheetId="8" r:id="rId8"/>
+    <sheet name="resolution_x_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="resolution_y_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="resolution_z_unit list" sheetId="11" r:id="rId11"/>
+    <sheet name="preparation_in...nt_vendor list" sheetId="12" r:id="rId12"/>
+    <sheet name="preparation_in...ent_model list" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -451,7 +452,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>version</t>
   </si>
@@ -505,6 +506,12 @@
   </si>
   <si>
     <t>is_targeted</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>acquisition_instrument_vendor</t>
@@ -990,58 +997,58 @@
         <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1058,8 +1065,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="N2:N1048576">
+      <formula1>'is_targeted list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Keyence / Zeiss." sqref="O2:O1048576">
       <formula1>'acquisition_in...nt_vendor list'!$A$1:$A$2</formula1>
@@ -1122,17 +1129,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1141,6 +1148,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1158,7 +1193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1168,12 +1203,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1263,12 +1298,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1286,17 +1321,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1314,17 +1344,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1342,17 +1372,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/codex/codex-metadata.xlsx
+++ b/docs/codex/codex-metadata.xlsx
@@ -169,7 +169,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Each assay is placed into one of the following 3 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, and determination of nucleotide sequence.</t>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>

--- a/docs/codex/codex-metadata.xlsx
+++ b/docs/codex/codex-metadata.xlsx
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>version</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>CODEX</t>
+  </si>
+  <si>
+    <t>CODEX2</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -984,64 +987,64 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1052,8 +1055,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CODEX / CODEX2." sqref="L2:L1048576">
+      <formula1>'assay_type list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
@@ -1122,17 +1125,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1168,12 +1171,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1228,6 +1231,11 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1253,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1263,12 +1271,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1286,17 +1294,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1314,17 +1322,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1342,17 +1350,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
